--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01169466666666667</v>
+        <v>0.06548633333333333</v>
       </c>
       <c r="H2">
-        <v>0.035084</v>
+        <v>0.196459</v>
       </c>
       <c r="I2">
-        <v>0.006735128183691388</v>
+        <v>0.3487919780632413</v>
       </c>
       <c r="J2">
-        <v>0.009867634642136521</v>
+        <v>0.4401890182968635</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01809933333333333</v>
+        <v>0.2234013333333333</v>
       </c>
       <c r="N2">
-        <v>0.054298</v>
+        <v>0.670204</v>
       </c>
       <c r="O2">
-        <v>0.008097582596147795</v>
+        <v>0.595550812346187</v>
       </c>
       <c r="P2">
-        <v>0.0115212492125265</v>
+        <v>0.6225155720848667</v>
       </c>
       <c r="Q2">
-        <v>0.0002116656702222222</v>
+        <v>0.01462973418177778</v>
       </c>
       <c r="R2">
-        <v>0.001904991032</v>
+        <v>0.131667607636</v>
       </c>
       <c r="S2">
-        <v>5.453825676308389E-05</v>
+        <v>0.2077233458753968</v>
       </c>
       <c r="T2">
-        <v>0.0001136874778502146</v>
+        <v>0.2740245185505479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01169466666666667</v>
+        <v>0.06548633333333333</v>
       </c>
       <c r="H3">
-        <v>0.035084</v>
+        <v>0.196459</v>
       </c>
       <c r="I3">
-        <v>0.006735128183691388</v>
+        <v>0.3487919780632413</v>
       </c>
       <c r="J3">
-        <v>0.009867634642136521</v>
+        <v>0.4401890182968635</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2234013333333333</v>
+        <v>0.04715833333333333</v>
       </c>
       <c r="N3">
-        <v>0.670204</v>
+        <v>0.141475</v>
       </c>
       <c r="O3">
-        <v>0.09994902659892882</v>
+        <v>0.1257162762034796</v>
       </c>
       <c r="P3">
-        <v>0.1422075823645827</v>
+        <v>0.1314083332249681</v>
       </c>
       <c r="Q3">
-        <v>0.002612604126222222</v>
+        <v>0.003088226336111111</v>
       </c>
       <c r="R3">
-        <v>0.023513437136</v>
+        <v>0.027794037025</v>
       </c>
       <c r="S3">
-        <v>0.0006731695059789657</v>
+        <v>0.04384882865175643</v>
       </c>
       <c r="T3">
-        <v>0.001403252466115239</v>
+        <v>0.05784450519832582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01169466666666667</v>
+        <v>0.06548633333333333</v>
       </c>
       <c r="H4">
-        <v>0.035084</v>
+        <v>0.196459</v>
       </c>
       <c r="I4">
-        <v>0.006735128183691388</v>
+        <v>0.3487919780632413</v>
       </c>
       <c r="J4">
-        <v>0.009867634642136521</v>
+        <v>0.4401890182968635</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.992601</v>
+        <v>0.0487455</v>
       </c>
       <c r="N4">
-        <v>3.985202</v>
+        <v>0.09749099999999999</v>
       </c>
       <c r="O4">
-        <v>0.8914831768389273</v>
+        <v>0.1299473986572195</v>
       </c>
       <c r="P4">
-        <v>0.8456021474871824</v>
+        <v>0.09055401883325934</v>
       </c>
       <c r="Q4">
-        <v>0.02330280449466666</v>
+        <v>0.003192164061499999</v>
       </c>
       <c r="R4">
-        <v>0.139816826968</v>
+        <v>0.019152984369</v>
       </c>
       <c r="S4">
-        <v>0.006004253469614592</v>
+        <v>0.04532461022182419</v>
       </c>
       <c r="T4">
-        <v>0.008344093044009557</v>
+        <v>0.03986088465304811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06548633333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.196459</v>
+      </c>
+      <c r="I5">
+        <v>0.3487919780632413</v>
+      </c>
+      <c r="J5">
+        <v>0.4401890182968635</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.01169466666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.035084</v>
-      </c>
-      <c r="I5">
-        <v>0.006735128183691388</v>
-      </c>
-      <c r="J5">
-        <v>0.009867634642136521</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.001051</v>
+        <v>0.055812</v>
       </c>
       <c r="N5">
-        <v>0.003153</v>
+        <v>0.167436</v>
       </c>
       <c r="O5">
-        <v>0.0004702139659960588</v>
+        <v>0.148785512793114</v>
       </c>
       <c r="P5">
-        <v>0.0006690209357084249</v>
+        <v>0.1555220758569059</v>
       </c>
       <c r="Q5">
-        <v>1.229109466666667E-05</v>
+        <v>0.003654923236</v>
       </c>
       <c r="R5">
-        <v>0.000110619852</v>
+        <v>0.032894309124</v>
       </c>
       <c r="S5">
-        <v>3.166951334745359E-06</v>
+        <v>0.05189519331426393</v>
       </c>
       <c r="T5">
-        <v>6.601654161511044E-06</v>
+        <v>0.06845910989494175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -788,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06548633333333333</v>
+        <v>0.003199333333333333</v>
       </c>
       <c r="H6">
-        <v>0.196459</v>
+        <v>0.009597999999999999</v>
       </c>
       <c r="I6">
-        <v>0.03771452935354652</v>
+        <v>0.01704022419665676</v>
       </c>
       <c r="J6">
-        <v>0.05525554766159785</v>
+        <v>0.02150542452935878</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01809933333333333</v>
+        <v>0.2234013333333333</v>
       </c>
       <c r="N6">
-        <v>0.054298</v>
+        <v>0.670204</v>
       </c>
       <c r="O6">
-        <v>0.008097582596147795</v>
+        <v>0.595550812346187</v>
       </c>
       <c r="P6">
-        <v>0.0115212492125265</v>
+        <v>0.6225155720848667</v>
       </c>
       <c r="Q6">
-        <v>0.001185258975777778</v>
+        <v>0.0007147353324444445</v>
       </c>
       <c r="R6">
-        <v>0.010667330782</v>
+        <v>0.006432617991999999</v>
       </c>
       <c r="S6">
-        <v>0.0003053965165151835</v>
+        <v>0.01014831936288008</v>
       </c>
       <c r="T6">
-        <v>0.0006366129349839047</v>
+        <v>0.0133874616538217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -850,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06548633333333333</v>
+        <v>0.003199333333333333</v>
       </c>
       <c r="H7">
-        <v>0.196459</v>
+        <v>0.009597999999999999</v>
       </c>
       <c r="I7">
-        <v>0.03771452935354652</v>
+        <v>0.01704022419665676</v>
       </c>
       <c r="J7">
-        <v>0.05525554766159785</v>
+        <v>0.02150542452935878</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2234013333333333</v>
+        <v>0.04715833333333333</v>
       </c>
       <c r="N7">
-        <v>0.670204</v>
+        <v>0.141475</v>
       </c>
       <c r="O7">
-        <v>0.09994902659892882</v>
+        <v>0.1257162762034796</v>
       </c>
       <c r="P7">
-        <v>0.1422075823645827</v>
+        <v>0.1314083332249681</v>
       </c>
       <c r="Q7">
-        <v>0.01462973418177778</v>
+        <v>0.0001508752277777778</v>
       </c>
       <c r="R7">
-        <v>0.131667607636</v>
+        <v>0.00135787705</v>
       </c>
       <c r="S7">
-        <v>0.003769530497523703</v>
+        <v>0.002142233531676116</v>
       </c>
       <c r="T7">
-        <v>0.007857757845186801</v>
+        <v>0.002825991992698381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,46 +909,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06548633333333333</v>
+        <v>0.003199333333333333</v>
       </c>
       <c r="H8">
-        <v>0.196459</v>
+        <v>0.009597999999999999</v>
       </c>
       <c r="I8">
-        <v>0.03771452935354652</v>
+        <v>0.01704022419665676</v>
       </c>
       <c r="J8">
-        <v>0.05525554766159785</v>
+        <v>0.02150542452935878</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.992601</v>
+        <v>0.0487455</v>
       </c>
       <c r="N8">
-        <v>3.985202</v>
+        <v>0.09749099999999999</v>
       </c>
       <c r="O8">
-        <v>0.8914831768389273</v>
+        <v>0.1299473986572195</v>
       </c>
       <c r="P8">
-        <v>0.8456021474871824</v>
+        <v>0.09055401883325934</v>
       </c>
       <c r="Q8">
-        <v>0.1304881332863333</v>
+        <v>0.000155953103</v>
       </c>
       <c r="R8">
-        <v>0.7829287997179999</v>
+        <v>0.0009357186179999998</v>
       </c>
       <c r="S8">
-        <v>0.03362186844108463</v>
+        <v>0.002214332806891354</v>
       </c>
       <c r="T8">
-        <v>0.0467242097632275</v>
+        <v>0.001947402617848792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06548633333333333</v>
+        <v>0.003199333333333333</v>
       </c>
       <c r="H9">
-        <v>0.196459</v>
+        <v>0.009597999999999999</v>
       </c>
       <c r="I9">
-        <v>0.03771452935354652</v>
+        <v>0.01704022419665676</v>
       </c>
       <c r="J9">
-        <v>0.05525554766159785</v>
+        <v>0.02150542452935878</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.001051</v>
+        <v>0.055812</v>
       </c>
       <c r="N9">
-        <v>0.003153</v>
+        <v>0.167436</v>
       </c>
       <c r="O9">
-        <v>0.0004702139659960588</v>
+        <v>0.148785512793114</v>
       </c>
       <c r="P9">
-        <v>0.0006690209357084249</v>
+        <v>0.1555220758569059</v>
       </c>
       <c r="Q9">
-        <v>6.882613633333333E-05</v>
+        <v>0.000178561192</v>
       </c>
       <c r="R9">
-        <v>0.000619435227</v>
+        <v>0.001607050728</v>
       </c>
       <c r="S9">
-        <v>1.773389842300589E-05</v>
+        <v>0.002535338495209205</v>
       </c>
       <c r="T9">
-        <v>3.696711819964366E-05</v>
+        <v>0.0033445682649899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,19 +1030,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.003107</v>
+        <v>0.1169495</v>
       </c>
       <c r="H10">
-        <v>0.009320999999999999</v>
+        <v>0.233899</v>
       </c>
       <c r="I10">
-        <v>0.001789366372140789</v>
+        <v>0.6228940507460646</v>
       </c>
       <c r="J10">
-        <v>0.002621600230856074</v>
+        <v>0.5240776507597925</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01809933333333333</v>
+        <v>0.2234013333333333</v>
       </c>
       <c r="N10">
-        <v>0.054298</v>
+        <v>0.670204</v>
       </c>
       <c r="O10">
-        <v>0.008097582596147795</v>
+        <v>0.595550812346187</v>
       </c>
       <c r="P10">
-        <v>0.0115212492125265</v>
+        <v>0.6225155720848667</v>
       </c>
       <c r="Q10">
-        <v>5.623462866666666E-05</v>
+        <v>0.02612667423266667</v>
       </c>
       <c r="R10">
-        <v>0.0005061116579999999</v>
+        <v>0.156760045396</v>
       </c>
       <c r="S10">
-        <v>1.448954199317937E-05</v>
+        <v>0.3709650579274258</v>
       </c>
       <c r="T10">
-        <v>3.020410959530984E-05</v>
+        <v>0.3262464985796252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.003107</v>
+        <v>0.1169495</v>
       </c>
       <c r="H11">
-        <v>0.009320999999999999</v>
+        <v>0.233899</v>
       </c>
       <c r="I11">
-        <v>0.001789366372140789</v>
+        <v>0.6228940507460646</v>
       </c>
       <c r="J11">
-        <v>0.002621600230856074</v>
+        <v>0.5240776507597925</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2234013333333333</v>
+        <v>0.04715833333333333</v>
       </c>
       <c r="N11">
-        <v>0.670204</v>
+        <v>0.141475</v>
       </c>
       <c r="O11">
-        <v>0.09994902659892882</v>
+        <v>0.1257162762034796</v>
       </c>
       <c r="P11">
-        <v>0.1422075823645827</v>
+        <v>0.1314083332249681</v>
       </c>
       <c r="Q11">
-        <v>0.0006941079426666666</v>
+        <v>0.005515143504166666</v>
       </c>
       <c r="R11">
-        <v>0.006246971483999999</v>
+        <v>0.03309086102499999</v>
       </c>
       <c r="S11">
-        <v>0.0001788454271243284</v>
+        <v>0.07830792052909646</v>
       </c>
       <c r="T11">
-        <v>0.0003728114307564742</v>
+        <v>0.06886817056680127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.003107</v>
+        <v>0.1169495</v>
       </c>
       <c r="H12">
-        <v>0.009320999999999999</v>
+        <v>0.233899</v>
       </c>
       <c r="I12">
-        <v>0.001789366372140789</v>
+        <v>0.6228940507460646</v>
       </c>
       <c r="J12">
-        <v>0.002621600230856074</v>
+        <v>0.5240776507597925</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>1.992601</v>
+        <v>0.0487455</v>
       </c>
       <c r="N12">
-        <v>3.985202</v>
+        <v>0.09749099999999999</v>
       </c>
       <c r="O12">
-        <v>0.8914831768389273</v>
+        <v>0.1299473986572195</v>
       </c>
       <c r="P12">
-        <v>0.8456021474871824</v>
+        <v>0.09055401883325934</v>
       </c>
       <c r="Q12">
-        <v>0.006191011307</v>
+        <v>0.005700761852249999</v>
       </c>
       <c r="R12">
-        <v>0.037146067842</v>
+        <v>0.022803047409</v>
       </c>
       <c r="S12">
-        <v>0.001595190017964817</v>
+        <v>0.0809434615335092</v>
       </c>
       <c r="T12">
-        <v>0.00221683078506479</v>
+        <v>0.04745733745699256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.1169495</v>
+      </c>
+      <c r="H13">
+        <v>0.233899</v>
+      </c>
+      <c r="I13">
+        <v>0.6228940507460646</v>
+      </c>
+      <c r="J13">
+        <v>0.5240776507597925</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.003107</v>
-      </c>
-      <c r="H13">
-        <v>0.009320999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.001789366372140789</v>
-      </c>
-      <c r="J13">
-        <v>0.002621600230856074</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M13">
-        <v>0.001051</v>
+        <v>0.055812</v>
       </c>
       <c r="N13">
-        <v>0.003153</v>
+        <v>0.167436</v>
       </c>
       <c r="O13">
-        <v>0.0004702139659960588</v>
+        <v>0.148785512793114</v>
       </c>
       <c r="P13">
-        <v>0.0006690209357084249</v>
+        <v>0.1555220758569059</v>
       </c>
       <c r="Q13">
-        <v>3.265457E-06</v>
+        <v>0.006527185494</v>
       </c>
       <c r="R13">
-        <v>2.9389113E-05</v>
+        <v>0.039163112964</v>
       </c>
       <c r="S13">
-        <v>8.413850584642999E-07</v>
+        <v>0.0926776107560332</v>
       </c>
       <c r="T13">
-        <v>1.753905439500754E-06</v>
+        <v>0.08150564415637349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1266,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.6536445</v>
+        <v>0.002116666666666666</v>
       </c>
       <c r="H14">
-        <v>3.307289</v>
+        <v>0.00635</v>
       </c>
       <c r="I14">
-        <v>0.9523578563809361</v>
+        <v>0.01127374699403734</v>
       </c>
       <c r="J14">
-        <v>0.9301995071245313</v>
+        <v>0.01422790641398502</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01809933333333333</v>
+        <v>0.2234013333333333</v>
       </c>
       <c r="N14">
-        <v>0.054298</v>
+        <v>0.670204</v>
       </c>
       <c r="O14">
-        <v>0.008097582596147795</v>
+        <v>0.595550812346187</v>
       </c>
       <c r="P14">
-        <v>0.0115212492125265</v>
+        <v>0.6225155720848667</v>
       </c>
       <c r="Q14">
-        <v>0.02992986302033333</v>
+        <v>0.0004728661555555555</v>
       </c>
       <c r="R14">
-        <v>0.179579178122</v>
+        <v>0.0042557954</v>
       </c>
       <c r="S14">
-        <v>0.007711796403134889</v>
+        <v>0.006714089180484322</v>
       </c>
       <c r="T14">
-        <v>0.01071706033895104</v>
+        <v>0.008857093300871831</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1328,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.6536445</v>
+        <v>0.002116666666666666</v>
       </c>
       <c r="H15">
-        <v>3.307289</v>
+        <v>0.00635</v>
       </c>
       <c r="I15">
-        <v>0.9523578563809361</v>
+        <v>0.01127374699403734</v>
       </c>
       <c r="J15">
-        <v>0.9301995071245313</v>
+        <v>0.01422790641398502</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1361,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.2234013333333333</v>
+        <v>0.04715833333333333</v>
       </c>
       <c r="N15">
-        <v>0.670204</v>
+        <v>0.141475</v>
       </c>
       <c r="O15">
-        <v>0.09994902659892882</v>
+        <v>0.1257162762034796</v>
       </c>
       <c r="P15">
-        <v>0.1422075823645827</v>
+        <v>0.1314083332249681</v>
       </c>
       <c r="Q15">
-        <v>0.3694263861593333</v>
+        <v>9.981847222222221E-05</v>
       </c>
       <c r="R15">
-        <v>2.216558316956</v>
+        <v>0.0008983662499999999</v>
       </c>
       <c r="S15">
-        <v>0.09518724071911701</v>
+        <v>0.001417293490950546</v>
       </c>
       <c r="T15">
-        <v>0.132281423024906</v>
+        <v>0.001869665467142605</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1390,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.6536445</v>
+        <v>0.002116666666666666</v>
       </c>
       <c r="H16">
-        <v>3.307289</v>
+        <v>0.00635</v>
       </c>
       <c r="I16">
-        <v>0.9523578563809361</v>
+        <v>0.01127374699403734</v>
       </c>
       <c r="J16">
-        <v>0.9301995071245313</v>
+        <v>0.01422790641398502</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>1.992601</v>
+        <v>0.0487455</v>
       </c>
       <c r="N16">
-        <v>3.985202</v>
+        <v>0.09749099999999999</v>
       </c>
       <c r="O16">
-        <v>0.8914831768389273</v>
+        <v>0.1299473986572195</v>
       </c>
       <c r="P16">
-        <v>0.8456021474871824</v>
+        <v>0.09055401883325934</v>
       </c>
       <c r="Q16">
-        <v>3.2950536843445</v>
+        <v>0.000103177975</v>
       </c>
       <c r="R16">
-        <v>13.180214737378</v>
+        <v>0.0006190678499999999</v>
       </c>
       <c r="S16">
-        <v>0.8490110072939877</v>
+        <v>0.001464994094994801</v>
       </c>
       <c r="T16">
-        <v>0.7865787008160223</v>
+        <v>0.001288394105369851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1452,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.6536445</v>
+        <v>0.002116666666666666</v>
       </c>
       <c r="H17">
-        <v>3.307289</v>
+        <v>0.00635</v>
       </c>
       <c r="I17">
-        <v>0.9523578563809361</v>
+        <v>0.01127374699403734</v>
       </c>
       <c r="J17">
-        <v>0.9301995071245313</v>
+        <v>0.01422790641398502</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.001051</v>
+        <v>0.055812</v>
       </c>
       <c r="N17">
-        <v>0.003153</v>
+        <v>0.167436</v>
       </c>
       <c r="O17">
-        <v>0.0004702139659960588</v>
+        <v>0.148785512793114</v>
       </c>
       <c r="P17">
-        <v>0.0006690209357084249</v>
+        <v>0.1555220758569059</v>
       </c>
       <c r="Q17">
-        <v>0.0017379803695</v>
+        <v>0.0001181354</v>
       </c>
       <c r="R17">
-        <v>0.010427882217</v>
+        <v>0.0010632186</v>
       </c>
       <c r="S17">
-        <v>0.0004478119646963849</v>
+        <v>0.001677370227607673</v>
       </c>
       <c r="T17">
-        <v>0.0006223229446519695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.002436333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.007309</v>
-      </c>
-      <c r="I18">
-        <v>0.001403119709685337</v>
-      </c>
-      <c r="J18">
-        <v>0.002055710340878345</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.01809933333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.054298</v>
-      </c>
-      <c r="O18">
-        <v>0.008097582596147795</v>
-      </c>
-      <c r="P18">
-        <v>0.0115212492125265</v>
-      </c>
-      <c r="Q18">
-        <v>4.409600911111111E-05</v>
-      </c>
-      <c r="R18">
-        <v>0.000396864082</v>
-      </c>
-      <c r="S18">
-        <v>1.136187774145993E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.368435114602721E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.002436333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.007309</v>
-      </c>
-      <c r="I19">
-        <v>0.001403119709685337</v>
-      </c>
-      <c r="J19">
-        <v>0.002055710340878345</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.2234013333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.670204</v>
-      </c>
-      <c r="O19">
-        <v>0.09994902659892882</v>
-      </c>
-      <c r="P19">
-        <v>0.1422075823645827</v>
-      </c>
-      <c r="Q19">
-        <v>0.0005442801151111111</v>
-      </c>
-      <c r="R19">
-        <v>0.004898521036</v>
-      </c>
-      <c r="S19">
-        <v>0.000140240449184821</v>
-      </c>
-      <c r="T19">
-        <v>0.0002923375976181816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.002436333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.007309</v>
-      </c>
-      <c r="I20">
-        <v>0.001403119709685337</v>
-      </c>
-      <c r="J20">
-        <v>0.002055710340878345</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.992601</v>
-      </c>
-      <c r="N20">
-        <v>3.985202</v>
-      </c>
-      <c r="O20">
-        <v>0.8914831768389273</v>
-      </c>
-      <c r="P20">
-        <v>0.8456021474871824</v>
-      </c>
-      <c r="Q20">
-        <v>0.004854640236333333</v>
-      </c>
-      <c r="R20">
-        <v>0.029127841418</v>
-      </c>
-      <c r="S20">
-        <v>0.001250857616275597</v>
-      </c>
-      <c r="T20">
-        <v>0.001738313078858336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.002436333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.007309</v>
-      </c>
-      <c r="I21">
-        <v>0.001403119709685337</v>
-      </c>
-      <c r="J21">
-        <v>0.002055710340878345</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.001051</v>
-      </c>
-      <c r="N21">
-        <v>0.003153</v>
-      </c>
-      <c r="O21">
-        <v>0.0004702139659960588</v>
-      </c>
-      <c r="P21">
-        <v>0.0006690209357084249</v>
-      </c>
-      <c r="Q21">
-        <v>2.560586333333334E-06</v>
-      </c>
-      <c r="R21">
-        <v>2.3045277E-05</v>
-      </c>
-      <c r="S21">
-        <v>6.597664834583808E-07</v>
-      </c>
-      <c r="T21">
-        <v>1.375313255799915E-06</v>
+        <v>0.002212753540600737</v>
       </c>
     </row>
   </sheetData>
